--- a/medicine/Enfance/Affaire_Gérard_Mercury/Affaire_Gérard_Mercury.xlsx
+++ b/medicine/Enfance/Affaire_Gérard_Mercury/Affaire_Gérard_Mercury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affaire_G%C3%A9rard_Mercury</t>
+          <t>Affaire_Gérard_Mercury</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire Gérard Mercury est une affaire judiciaire mettant en cause le prêtre pédophile Gérard Mercury. Il est condamné une première fois en 1991 à 18 mois de prison dans le diocèse de Fréjus-Toulon. Puis après avoir purgé sa peine il est déplacé dans le diocèse de Bordeaux où il récidive. Il est alors condamné à 4 ans de prison en septembre 2001. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affaire_G%C3%A9rard_Mercury</t>
+          <t>Affaire_Gérard_Mercury</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Mercury est condamné, en 1991, à 18 mois de prison avec sursis dans le Var par le tribunal de Draguignan pour « exhibition sexuelle » auprès de jeunes âgés de 11 à 15 ans dans le diocèse de Fréjus-Toulon. À l'époque il travaillait dans quatre paroisses à proximité de Brignoles[1],[2] .
-À la suite de cette condamnation, il est muté dans le diocèse de Bordeaux. Il exerce dans les paroisses de Bègles, de Léognan, de Saint-Médard-d'Eyrans, puis à partir de 1998 à Pessac[3],[4].
-De 1994 à 1999, dans les paroisses de Léognan et de Saint-Médard-d'Eyrans, il agresse plusieurs jeunes garçons[5].
-En octobre 2000, Gérard Mercury est mis en examen pour « agressions sexuelles sur mineurs de moins de 15 ans » puis écroué[6].
-En septembre 2001, Gérard Mercury  est condamné à 4 ans de prison avec une interdiction à vie d'une activité en lien avec des enfants. Il doit par ailleurs, pendant 10 ans après sa libération, se soumettre à un contrôle judiciaire et médical. En novembre 2001, Gérard Mercury est rendu à l'état laïc[7]. 
-À la suite de cette affaire et de la condamnation de l'évêque Pierre Pican à trois mois de prison avec sursis, pour ne pas avoir signalé à la justice les agissements pédocriminels de l'abbé René Bissey, la Conférence des évêques de France crée, en novembre 2001, le Comité consultatif en matière d'abus sur mineurs. Celui-ci est composé de 11 membres, il est présidé par Bernard-Nicolas Aubertin. Trois objectifs lui sont fixés : « Offrir une aide aux victimes ; organiser le suivi des personnes condamnées ; renforcer la formation des acteurs de la pastorale en matière de prévention »[8],[9]. Selon Bernard-Nicolas Aubertin, Gérard Mercury est le premier prêtre qui a fait l'objet d'une destitution pour abus sexuels[7].
-Après la publication du rapport de la Commission indépendante sur les abus sexuels dans l'Église en octobre 2021, Jean Rouet, vicaire général du diocèse de Bordeaux, indique concernant Gérard Mercury : « Je le confesse avec honte. À cette époque, les responsables des diocèses invitaient d'autres diocèses à accueillir un prêtre, sans leur dire quoi que ce soit sur son passé. Nous-mêmes, ici à Bordeaux, n'avons pas posé de questions. C'était une naïveté coupable »[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Mercury est condamné, en 1991, à 18 mois de prison avec sursis dans le Var par le tribunal de Draguignan pour « exhibition sexuelle » auprès de jeunes âgés de 11 à 15 ans dans le diocèse de Fréjus-Toulon. À l'époque il travaillait dans quatre paroisses à proximité de Brignoles, .
+À la suite de cette condamnation, il est muté dans le diocèse de Bordeaux. Il exerce dans les paroisses de Bègles, de Léognan, de Saint-Médard-d'Eyrans, puis à partir de 1998 à Pessac,.
+De 1994 à 1999, dans les paroisses de Léognan et de Saint-Médard-d'Eyrans, il agresse plusieurs jeunes garçons.
+En octobre 2000, Gérard Mercury est mis en examen pour « agressions sexuelles sur mineurs de moins de 15 ans » puis écroué.
+En septembre 2001, Gérard Mercury  est condamné à 4 ans de prison avec une interdiction à vie d'une activité en lien avec des enfants. Il doit par ailleurs, pendant 10 ans après sa libération, se soumettre à un contrôle judiciaire et médical. En novembre 2001, Gérard Mercury est rendu à l'état laïc. 
+À la suite de cette affaire et de la condamnation de l'évêque Pierre Pican à trois mois de prison avec sursis, pour ne pas avoir signalé à la justice les agissements pédocriminels de l'abbé René Bissey, la Conférence des évêques de France crée, en novembre 2001, le Comité consultatif en matière d'abus sur mineurs. Celui-ci est composé de 11 membres, il est présidé par Bernard-Nicolas Aubertin. Trois objectifs lui sont fixés : « Offrir une aide aux victimes ; organiser le suivi des personnes condamnées ; renforcer la formation des acteurs de la pastorale en matière de prévention »,. Selon Bernard-Nicolas Aubertin, Gérard Mercury est le premier prêtre qui a fait l'objet d'une destitution pour abus sexuels.
+Après la publication du rapport de la Commission indépendante sur les abus sexuels dans l'Église en octobre 2021, Jean Rouet, vicaire général du diocèse de Bordeaux, indique concernant Gérard Mercury : « Je le confesse avec honte. À cette époque, les responsables des diocèses invitaient d'autres diocèses à accueillir un prêtre, sans leur dire quoi que ce soit sur son passé. Nous-mêmes, ici à Bordeaux, n'avons pas posé de questions. C'était une naïveté coupable ».
 </t>
         </is>
       </c>
